--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/93.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/93.xlsx
@@ -479,13 +479,13 @@
         <v>-0.05754636935110189</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.919580739070002</v>
+        <v>-1.923056173289834</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05057728355535458</v>
+        <v>0.04206813618560306</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01710261890265285</v>
+        <v>0.00847856813704638</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.05494044780515122</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.779371837801901</v>
+        <v>-1.790127110457748</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001060216018356239</v>
+        <v>-0.008058076751338645</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01902292223063969</v>
+        <v>0.01054682926243548</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.06354199171190035</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.747427906744664</v>
+        <v>-1.762158364691356</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04463198505388143</v>
+        <v>-0.05109490756594205</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01524212830127544</v>
+        <v>0.006594467248849457</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.08767570604758756</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.770327523930907</v>
+        <v>-1.787367854938108</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.08123579971972893</v>
+        <v>-0.08637812018901826</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04001876328966956</v>
+        <v>0.02974041842757607</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1225540691260468</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.738089251297987</v>
+        <v>-1.752983407233294</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1419284030179621</v>
+        <v>-0.144665622269904</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04756933301454896</v>
+        <v>0.03481663009377079</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1567130537530831</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.594426165068191</v>
+        <v>-1.611643573226539</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2016876129772641</v>
+        <v>-0.1979823719657222</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04201934159284273</v>
+        <v>0.03115388759850409</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1789713359796025</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.455642538114427</v>
+        <v>-1.470544564145342</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.3011246969463137</v>
+        <v>-0.290599231082176</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06986059181040931</v>
+        <v>0.05792480481358619</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1838808156228952</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.235818175671816</v>
+        <v>-1.249838750994802</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.3921392045972834</v>
+        <v>-0.3726906243344921</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09508582224837413</v>
+        <v>0.08231895315550425</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1700322615863679</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9438730441007677</v>
+        <v>-0.9490885564591974</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4393629262745466</v>
+        <v>-0.4140259404789695</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1374096224010283</v>
+        <v>0.1232906708829612</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.138262165164098</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.747104126737408</v>
+        <v>-0.7452719684802139</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5475956290934245</v>
+        <v>-0.5145380795078675</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1366493711654401</v>
+        <v>0.1225524559150711</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.08849271677976285</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5268642232467732</v>
+        <v>-0.5171981718228656</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6751399725115406</v>
+        <v>-0.635243309843932</v>
       </c>
       <c r="G12" t="n">
-        <v>0.149384759875884</v>
+        <v>0.1354594127097368</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.01836732539661898</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2829998667645363</v>
+        <v>-0.2684858364470226</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8104678404844885</v>
+        <v>-0.7706010841801847</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2128397667319999</v>
+        <v>0.1992119091797785</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.07449671777375522</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.06030764148291497</v>
+        <v>-0.04203800154197789</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.926901182925343</v>
+        <v>-0.8850755598245804</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2773493663993873</v>
+        <v>0.2629344992865156</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1901185461589027</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2890396064132875</v>
+        <v>0.307724787402248</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.065325146509889</v>
+        <v>-1.025614218098594</v>
       </c>
       <c r="G15" t="n">
-        <v>0.31077681047845</v>
+        <v>0.2989401866862688</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3218231447288061</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5540115593121666</v>
+        <v>0.5742172427723035</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.206469802145604</v>
+        <v>-1.172940046823657</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3323786488991806</v>
+        <v>0.3247336380270232</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4594856240707062</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8042428231400647</v>
+        <v>0.8250938544399349</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.336407441637658</v>
+        <v>-1.307320355285582</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3601600863901377</v>
+        <v>0.355585986823638</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5961043111576887</v>
       </c>
       <c r="E18" t="n">
-        <v>1.042119610884874</v>
+        <v>1.065670084977775</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.533783930381839</v>
+        <v>-1.506861907331112</v>
       </c>
       <c r="G18" t="n">
-        <v>0.408844497811968</v>
+        <v>0.4059593207626239</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.726735582098051</v>
       </c>
       <c r="E19" t="n">
-        <v>1.316129581578261</v>
+        <v>1.334943832135169</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.736806425714127</v>
+        <v>-1.711875536851845</v>
       </c>
       <c r="G19" t="n">
-        <v>0.443592543933802</v>
+        <v>0.4418327905561878</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.8461591274698834</v>
       </c>
       <c r="E20" t="n">
-        <v>1.611011045820096</v>
+        <v>1.629076063275264</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.935931649702073</v>
+        <v>-1.915032610819003</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5092968241142566</v>
+        <v>0.5069767199294594</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.9500272365339913</v>
       </c>
       <c r="E21" t="n">
-        <v>1.816311933830466</v>
+        <v>1.82806670862834</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.162034774419553</v>
+        <v>-2.14370925679981</v>
       </c>
       <c r="G21" t="n">
-        <v>0.58338590415388</v>
+        <v>0.5810768181029319</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.035748086903115</v>
       </c>
       <c r="E22" t="n">
-        <v>1.952439403517035</v>
+        <v>1.961493161502756</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.330056593561038</v>
+        <v>-2.312930478511726</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6456289162865944</v>
+        <v>0.6431215038263624</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.102251598375797</v>
       </c>
       <c r="E23" t="n">
-        <v>2.154792153713208</v>
+        <v>2.157027260865456</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.481380430854204</v>
+        <v>-2.465321500769134</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7032915327763238</v>
+        <v>0.700466168453589</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.147682614313895</v>
       </c>
       <c r="E24" t="n">
-        <v>2.265903737504945</v>
+        <v>2.261205290427863</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.723619612593698</v>
+        <v>-2.705423164541901</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7495913052293836</v>
+        <v>0.7481101532362395</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.170231390405738</v>
       </c>
       <c r="E25" t="n">
-        <v>2.41630598660259</v>
+        <v>2.403140890672031</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.884386777605108</v>
+        <v>-2.86516092104798</v>
       </c>
       <c r="G25" t="n">
-        <v>0.79450751487482</v>
+        <v>0.7893289919657407</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.1701167207804</v>
       </c>
       <c r="E26" t="n">
-        <v>2.56896537912018</v>
+        <v>2.550154276601516</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.055826579268496</v>
+        <v>-3.036194625778074</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8242423100953112</v>
+        <v>0.8201199540166247</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.148958185399366</v>
       </c>
       <c r="E27" t="n">
-        <v>2.624030864059763</v>
+        <v>2.600648810012841</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.181319188761997</v>
+        <v>-3.154595492120554</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8661883456588533</v>
+        <v>0.8615811916908062</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.1099188391654</v>
       </c>
       <c r="E28" t="n">
-        <v>2.638784145283715</v>
+        <v>2.61544773779131</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.271504975345602</v>
+        <v>-3.240924144847412</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8935888705224556</v>
+        <v>0.8861972767288276</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.056298792131259</v>
       </c>
       <c r="E29" t="n">
-        <v>2.649221466077059</v>
+        <v>2.623062842300163</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.368281179990093</v>
+        <v>-3.330222971656164</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8945380040526</v>
+        <v>0.8861957027097063</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.99183635650262</v>
       </c>
       <c r="E30" t="n">
-        <v>2.649024713686897</v>
+        <v>2.619486670856568</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.408269135766737</v>
+        <v>-3.363236448706324</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9036358345737179</v>
+        <v>0.8967652411092404</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9204781399715437</v>
       </c>
       <c r="E31" t="n">
-        <v>2.639416900970478</v>
+        <v>2.609409800442001</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.492597997199982</v>
+        <v>-3.439817201014967</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8691616677789903</v>
+        <v>0.8609075115068895</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.8462127595467703</v>
       </c>
       <c r="E32" t="n">
-        <v>2.602213385019414</v>
+        <v>2.573103475390079</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.542590418511613</v>
+        <v>-3.480950255702357</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8663850980490159</v>
+        <v>0.8571928263806199</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.7734063421424811</v>
       </c>
       <c r="E33" t="n">
-        <v>2.533571985158613</v>
+        <v>2.505831472164809</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.585529660140696</v>
+        <v>-3.517410834628166</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8816105850093574</v>
+        <v>0.8688405678782449</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7051329406596016</v>
       </c>
       <c r="E34" t="n">
-        <v>2.475570954557804</v>
+        <v>2.448209780172234</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.605631458338827</v>
+        <v>-3.537003437640556</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8778896038066026</v>
+        <v>0.8631882652136541</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.6434756944943661</v>
       </c>
       <c r="E35" t="n">
-        <v>2.414483272460124</v>
+        <v>2.389725525701186</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.579102153058864</v>
+        <v>-3.507352852443054</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8309617977241439</v>
+        <v>0.8149209688589686</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.5890246980354669</v>
       </c>
       <c r="E36" t="n">
-        <v>2.330540832721158</v>
+        <v>2.303987130144816</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.560736497951528</v>
+        <v>-3.488485872245584</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8235402975672111</v>
+        <v>0.8063205283801816</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5405697336341102</v>
       </c>
       <c r="E37" t="n">
-        <v>2.178156893549796</v>
+        <v>2.15585933867745</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.506303768698707</v>
+        <v>-3.433950831749879</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7778087460169409</v>
+        <v>0.7609572973042957</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.4975384871676416</v>
       </c>
       <c r="E38" t="n">
-        <v>2.094896004090354</v>
+        <v>2.071224330525113</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.46397603349825</v>
+        <v>-3.392288906637732</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7680120510059655</v>
+        <v>0.7533925614073247</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4588160949974766</v>
       </c>
       <c r="E39" t="n">
-        <v>2.009944618094634</v>
+        <v>1.988345927712146</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.353350821614995</v>
+        <v>-3.283617839493572</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7134817325676245</v>
+        <v>0.6996634187017257</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4233866216310748</v>
       </c>
       <c r="E40" t="n">
-        <v>1.885373596796655</v>
+        <v>1.86388666177178</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.270459826649058</v>
+        <v>-3.202458265561065</v>
       </c>
       <c r="G40" t="n">
-        <v>0.679736336626059</v>
+        <v>0.6662328265844204</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3910625189673949</v>
       </c>
       <c r="E41" t="n">
-        <v>1.774121925303122</v>
+        <v>1.756747902242205</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.212560320281573</v>
+        <v>-3.145149803373628</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6326558506888341</v>
+        <v>0.6210647738795758</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3610915127557668</v>
       </c>
       <c r="E42" t="n">
-        <v>1.637356977872427</v>
+        <v>1.62473806657696</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.150773773694036</v>
+        <v>-3.085230830473515</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5856729539371299</v>
+        <v>0.5750609170213207</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3331229489054162</v>
       </c>
       <c r="E43" t="n">
-        <v>1.514134890961403</v>
+        <v>1.503614147154629</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.044532992073164</v>
+        <v>-2.982876302063134</v>
       </c>
       <c r="G43" t="n">
-        <v>0.530991529663144</v>
+        <v>0.5212168709198667</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.306180872134715</v>
       </c>
       <c r="E44" t="n">
-        <v>1.321179034919394</v>
+        <v>1.314728704560304</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.989713054116504</v>
+        <v>-2.929886161334986</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4847405518028446</v>
+        <v>0.4762770509876108</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2788451730655016</v>
       </c>
       <c r="E45" t="n">
-        <v>1.138457451204082</v>
+        <v>1.134645176892292</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.874701837951744</v>
+        <v>-2.818068629967346</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4380032020340633</v>
+        <v>0.4308870615866628</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2511797165780946</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9625466482266388</v>
+        <v>0.9650902631266607</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.713866990118119</v>
+        <v>-2.662008569138186</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3813432357246024</v>
+        <v>0.374179874703563</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2232776257168147</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8871999269090961</v>
+        <v>0.8916307907355576</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.669353729367735</v>
+        <v>-2.617885665129885</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3453076419615445</v>
+        <v>0.3388163871053004</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1953719338652146</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7404289399242923</v>
+        <v>0.7494181631260405</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.592118972114192</v>
+        <v>-2.542423253406926</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3529306165660037</v>
+        <v>0.3474609001194838</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1684296956624783</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6034215935489164</v>
+        <v>0.6160436528826266</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.534341452228608</v>
+        <v>-2.485076227751018</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3087368816972443</v>
+        <v>0.3039329753390346</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1427485891220858</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4693356266626748</v>
+        <v>0.4858344950921485</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.474722329971102</v>
+        <v>-2.425797880633274</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2616422295879277</v>
+        <v>0.2589837112920508</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1188905678189471</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3549815634810585</v>
+        <v>0.3736242459537438</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.446047636628807</v>
+        <v>-2.397707935394541</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2448789259460754</v>
+        <v>0.2422251297075624</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.0971988150514696</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1976552042688121</v>
+        <v>0.2185534561423214</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.450385633327111</v>
+        <v>-2.401117260811279</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2301382368750944</v>
+        <v>0.2273018544185106</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.07729278078899819</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1384169946386608</v>
+        <v>0.1639019382316402</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.360208503848674</v>
+        <v>-2.314707546099674</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1929488870961231</v>
+        <v>0.1906130427201129</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.05857819685611944</v>
       </c>
       <c r="E54" t="n">
-        <v>0.03526365152422018</v>
+        <v>0.06130422386701876</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.317162228919343</v>
+        <v>-2.273531205886448</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1699099692176449</v>
+        <v>0.1676827321610045</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.03954760490502555</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.0532528877812453</v>
+        <v>-0.02604911530780551</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.274969072353756</v>
+        <v>-2.234142164385459</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1526004809407012</v>
+        <v>0.1511382171770129</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.01881439873329445</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.09339824547001933</v>
+        <v>-0.06513201008970158</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.247746411650861</v>
+        <v>-2.209732275852328</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1239958314493039</v>
+        <v>0.1226311568711362</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.004762951138108922</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.165060188024597</v>
+        <v>-0.1349019816604759</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.221631073399801</v>
+        <v>-2.185328683395682</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1236621393955881</v>
+        <v>0.1211374127250218</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.03282921411853501</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.2418251005704316</v>
+        <v>-0.2120430847763013</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.204152378067317</v>
+        <v>-2.16921938469873</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1099461367725739</v>
+        <v>0.1072482679986645</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.06586812337764153</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3153443856881441</v>
+        <v>-0.2872229600669861</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.197683159478771</v>
+        <v>-2.163827582198715</v>
       </c>
       <c r="G59" t="n">
-        <v>0.08947287006181587</v>
+        <v>0.0867875934408769</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1045661471884993</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3566183150868907</v>
+        <v>-0.3276736774652924</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.209288402460121</v>
+        <v>-2.17467650899228</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0620770672555774</v>
+        <v>0.06031101780147803</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1492851861357456</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3829217486229465</v>
+        <v>-0.3549356886462203</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.155565555831008</v>
+        <v>-2.125288511023228</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02322397926539123</v>
+        <v>0.02301306070313693</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1993324122554338</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4253195276743019</v>
+        <v>-0.3963591498614905</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.136684409461445</v>
+        <v>-2.108355213316275</v>
       </c>
       <c r="G62" t="n">
-        <v>0.05889912264967131</v>
+        <v>0.05822701648487592</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2547416853350697</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.435648241148277</v>
+        <v>-0.4071285886894298</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.160979394598721</v>
+        <v>-2.134605130202207</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02735263142056293</v>
+        <v>0.02733689122934992</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3147896899076648</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.4247560288288763</v>
+        <v>-0.3937950727128917</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.128803295721093</v>
+        <v>-2.106759157927276</v>
       </c>
       <c r="G64" t="n">
-        <v>0.009742505491450833</v>
+        <v>0.01041775969448883</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3782268333521672</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4778587119241975</v>
+        <v>-0.4479523486194845</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.138718829175726</v>
+        <v>-2.116851768533056</v>
       </c>
       <c r="G65" t="n">
-        <v>0.009808614294545461</v>
+        <v>0.009980182378767237</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4438107819956902</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.497412751468116</v>
+        <v>-0.4673993548631545</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.126639806438865</v>
+        <v>-2.105907613582653</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.02255479285851798</v>
+        <v>-0.02311199562745843</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5091204487209473</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5179552750202112</v>
+        <v>-0.4904288286269048</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.159133070169435</v>
+        <v>-2.137046433859344</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.02216286209731411</v>
+        <v>-0.02322060294682817</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5720391885423756</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.4644307548003814</v>
+        <v>-0.4360102655461762</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.1908684436931</v>
+        <v>-2.169643582851921</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.04440690031953543</v>
+        <v>-0.04505067414014741</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6299999579488345</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.4269643776560611</v>
+        <v>-0.400418545175325</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.217095537301772</v>
+        <v>-2.194992373790908</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.07397957157053275</v>
+        <v>-0.07430067147127808</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6801857032939386</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.3472780856210925</v>
+        <v>-0.3225187648430327</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.22622878325312</v>
+        <v>-2.204126406751816</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.0821046582746869</v>
+        <v>-0.08236751946794411</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.7211602085294073</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.2935819973170408</v>
+        <v>-0.268550371230996</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.251979736077599</v>
+        <v>-2.229572786876323</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.08795056529119766</v>
+        <v>-0.08722336845715674</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7516799786009747</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.234027409843508</v>
+        <v>-0.2081647016614164</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.304895897907046</v>
+        <v>-2.281679115867861</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.07318311789515461</v>
+        <v>-0.07155243408548709</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7713427512024063</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.1063114983411702</v>
+        <v>-0.08058415580351044</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.314296727109015</v>
+        <v>-2.291364055521224</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.0887501670048184</v>
+        <v>-0.08711161309954439</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.780401303927439</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.03244750303589281</v>
+        <v>-0.007204958387593672</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.358299218654536</v>
+        <v>-2.335552281323059</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07713547990874063</v>
+        <v>-0.07505462663038112</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.7793212614413503</v>
       </c>
       <c r="E75" t="n">
-        <v>0.06247686811238778</v>
+        <v>0.08928713580550239</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.389246008598429</v>
+        <v>-2.366011125339349</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.08260519635526052</v>
+        <v>-0.07989158739013813</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.7689521814427069</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1991678366443821</v>
+        <v>0.2260505092170766</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.412694958458006</v>
+        <v>-2.390322637677399</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.09394285608598937</v>
+        <v>-0.08996216172821994</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.7496626560904056</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3428899485912266</v>
+        <v>0.3701063132176368</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.349535867196694</v>
+        <v>-2.330643702693283</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1032201247869356</v>
+        <v>-0.09691460418700508</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.7221083638424356</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5260727199090793</v>
+        <v>0.5540052632356813</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.343135118439925</v>
+        <v>-2.326209690828579</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.07805470707558024</v>
+        <v>-0.07295803316080861</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.6871682594607721</v>
       </c>
       <c r="E79" t="n">
-        <v>0.646338798910301</v>
+        <v>0.6744617985505804</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.274798291279095</v>
+        <v>-2.259405958291896</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.06801246508168185</v>
+        <v>-0.06022579248860734</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.6457400509080183</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8019400331656018</v>
+        <v>0.8294538874059378</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.252943035779835</v>
+        <v>-2.239760625638942</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.04735661215285292</v>
+        <v>-0.03980604242797352</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.5994168717692702</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9238367959764909</v>
+        <v>0.9527137507758734</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.212902350362628</v>
+        <v>-2.200919342792166</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.02045505135070286</v>
+        <v>-0.0120796956062619</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.5491490678252503</v>
       </c>
       <c r="E82" t="n">
-        <v>1.076397025289439</v>
+        <v>1.10437678918968</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.157001061269634</v>
+        <v>-2.145417067546421</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.02539747139158702</v>
+        <v>-0.01611075857591297</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.4959563919382683</v>
       </c>
       <c r="E83" t="n">
-        <v>1.145217863330069</v>
+        <v>1.17330623454968</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.098871748110439</v>
+        <v>-2.089674754384679</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0006179166452707455</v>
+        <v>0.01117014083447056</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.4404765993783976</v>
       </c>
       <c r="E84" t="n">
-        <v>1.281028955173256</v>
+        <v>1.309680825238293</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.016732347274923</v>
+        <v>-2.008722163966624</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02955783220950519</v>
+        <v>0.03999672702197135</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3828914713506802</v>
       </c>
       <c r="E85" t="n">
-        <v>1.290893333006447</v>
+        <v>1.319579831492153</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.85897470682344</v>
+        <v>-1.854602081704467</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04516737983544411</v>
+        <v>0.0556708094318836</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3242083573774341</v>
       </c>
       <c r="E86" t="n">
-        <v>1.33427959606598</v>
+        <v>1.364127720663205</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.763112220278864</v>
+        <v>-1.760818874419129</v>
       </c>
       <c r="G86" t="n">
-        <v>0.06509131387286822</v>
+        <v>0.07509577940785539</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2656119427308909</v>
       </c>
       <c r="E87" t="n">
-        <v>1.34154054627254</v>
+        <v>1.374687814948011</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.571629646134393</v>
+        <v>-1.571399839342683</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05907698681037829</v>
+        <v>0.06928922286937715</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2093011178713103</v>
       </c>
       <c r="E88" t="n">
-        <v>1.332299480011383</v>
+        <v>1.368607379082426</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.424127527267745</v>
+        <v>-1.424718571447793</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08729442759793572</v>
+        <v>0.09812682719072706</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1584251641110711</v>
       </c>
       <c r="E89" t="n">
-        <v>1.343185396254299</v>
+        <v>1.380300767134569</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.231528186556711</v>
+        <v>-1.230871820583129</v>
       </c>
       <c r="G89" t="n">
-        <v>0.08145639067703146</v>
+        <v>0.09167334879339423</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1154684866788732</v>
       </c>
       <c r="E90" t="n">
-        <v>1.283637104857251</v>
+        <v>1.320223605312765</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.064883634146365</v>
+        <v>-1.065390468303423</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09086745100328829</v>
+        <v>0.1011111674447132</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.08318317131458269</v>
       </c>
       <c r="E91" t="n">
-        <v>1.223015332419477</v>
+        <v>1.2584276146105</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.874805872067654</v>
+        <v>-0.8746295819260684</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05848987767813314</v>
+        <v>0.06880285096089524</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.06354350743573478</v>
       </c>
       <c r="E92" t="n">
-        <v>1.208375380572259</v>
+        <v>1.243389435925593</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.7108890947945218</v>
+        <v>-0.7089357370649876</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04049096902605977</v>
+        <v>0.05143512397646345</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.05675844621075325</v>
       </c>
       <c r="E93" t="n">
-        <v>1.189591036378656</v>
+        <v>1.222651734002456</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.5349184790904687</v>
+        <v>-0.5337017623097033</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02379692222554467</v>
+        <v>0.03290734489963305</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.06228821864918731</v>
       </c>
       <c r="E94" t="n">
-        <v>1.157425955634877</v>
+        <v>1.190016021541408</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.4059228900425135</v>
+        <v>-0.4004327113474167</v>
       </c>
       <c r="G94" t="n">
-        <v>0.002892374275550239</v>
+        <v>0.01340052592935363</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.07794092452953137</v>
       </c>
       <c r="E95" t="n">
-        <v>1.127930411320823</v>
+        <v>1.156695610762593</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.2703400309719148</v>
+        <v>-0.2647569851486613</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.001768296342621097</v>
+        <v>0.007597117429117995</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1000794383599826</v>
       </c>
       <c r="E96" t="n">
-        <v>1.09589440014499</v>
+        <v>1.125460775319503</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.1632248817291604</v>
+        <v>-0.156045780516908</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03671152083549636</v>
+        <v>-0.0274011977330028</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1232821125961221</v>
       </c>
       <c r="E97" t="n">
-        <v>1.043440212927645</v>
+        <v>1.071830795818546</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.08114765464893609</v>
+        <v>-0.07426919108885208</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.06718767906212028</v>
+        <v>-0.05786161576841371</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1405154029053955</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9830954678552193</v>
+        <v>1.007941359684951</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.0690450216252551</v>
+        <v>-0.06408056531667272</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.09173293323968321</v>
+        <v>-0.08314665893298796</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1476066367897929</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9317179097168435</v>
+        <v>0.9537888058357218</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.00728995542014391</v>
+        <v>-0.001702187539526468</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1291284795235449</v>
+        <v>-0.1198291745549005</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1450731162247534</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9128721787775104</v>
+        <v>0.9299644524157146</v>
       </c>
       <c r="F100" t="n">
-        <v>0.04282051732558478</v>
+        <v>0.04573402671911236</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1300713169772041</v>
+        <v>-0.1216141122384555</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1381473129098455</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8526092826993923</v>
+        <v>0.8663410255136195</v>
       </c>
       <c r="F101" t="n">
-        <v>0.06738780777084592</v>
+        <v>0.07113239926042025</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1599587920524615</v>
+        <v>-0.1527513584960257</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1306843739631195</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7918301083494875</v>
+        <v>0.8011687637961644</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1122599448808859</v>
+        <v>0.1144320912682809</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.151208819757151</v>
+        <v>-0.1446892325567236</v>
       </c>
     </row>
   </sheetData>
